--- a/eventenergies/Registration page.xlsx
+++ b/eventenergies/Registration page.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -296,19 +299,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -318,7 +326,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -328,38 +336,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -549,29 +563,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.14"/>
-    <col customWidth="1" min="2" max="2" width="32.86"/>
-    <col customWidth="1" min="3" max="3" width="42.29"/>
-    <col customWidth="1" min="4" max="4" width="25.43"/>
-    <col customWidth="1" min="5" max="5" width="32.71"/>
-    <col customWidth="1" min="6" max="6" width="27.43"/>
-    <col customWidth="1" min="7" max="7" width="20.57"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,9 +613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -617,9 +636,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -640,9 +659,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -663,9 +682,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -686,9 +705,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -709,9 +728,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -732,9 +751,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -755,9 +774,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
@@ -778,9 +797,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>36</v>
@@ -801,9 +820,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>44</v>
@@ -822,9 +841,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -845,9 +864,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>51</v>
@@ -868,9 +887,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -891,9 +910,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>60</v>
@@ -914,9 +933,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
@@ -925,7 +944,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="1">
-        <v>9.986368808E9</v>
+        <v>9986368808</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>64</v>
@@ -937,9 +956,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>65</v>
@@ -960,9 +979,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>65</v>
@@ -983,9 +1002,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -1006,9 +1025,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>74</v>
@@ -1029,9 +1048,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>78</v>
@@ -1040,7 +1059,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="1">
-        <v>11111.0</v>
+        <v>11111</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>79</v>
@@ -1052,9 +1071,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>81</v>
@@ -1075,9 +1094,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
@@ -1097,6 +1116,6 @@
       <c r="G23" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>